--- a/统计文档/11.23/实验时间.xlsx
+++ b/统计文档/11.23/实验时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085CB9A-F817-4885-B506-ED24C2688670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E68BE6-C318-431F-81AC-9A556305E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,6 +201,5927 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>所要時間</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>de</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>27.55</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>23.78</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>15.76</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13.46</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.41</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.77</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16.96</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.53</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>28.35</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15.96</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>23.81</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>31.73</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.39</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>47.73</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>21.84</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>25.32</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7628-4096-B00A-AAC09EE2D9AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>seg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>32.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>29.94</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.78</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.66</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.96</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.79</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.11</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.89</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10.38</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>18.73</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>32.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>38.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.54</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45.37</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>20.18</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>26.44</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>15.38</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>22.09</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7628-4096-B00A-AAC09EE2D9AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>nei</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>50.77</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>37.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>23.47</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16.43</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.01</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.31</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>31.11</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45.71</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.89</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>78.34</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>36.99</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>34.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>36.94</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>68.34</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>36.18</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>16.91</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7628-4096-B00A-AAC09EE2D9AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>complete</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$2:$AD$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10.77</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.01</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.72</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>18.34</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15.19</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.53</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>50.02</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>88.86</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>34.26</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>39.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15.68</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>24.57</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>19.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15.89</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>23.81</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>35.47</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>37.81</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7628-4096-B00A-AAC09EE2D9AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1125236703"/>
+        <c:axId val="1194012463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1125236703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>instance(5~200)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194012463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1194012463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125236703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>107574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7878C645-FC55-B4DD-AA4B-0562158BF716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12741,5 +18662,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/统计文档/11.23/实验时间.xlsx
+++ b/统计文档/11.23/实验时间.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\统计文档\11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C351F300-B35C-4D48-B215-3D6B4CBF7A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9454D697-D29B-4E29-8F86-DE414472C49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LKH" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6395,27 +6395,27 @@
   <dimension ref="A1:AH197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.08203125" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="18.375" customWidth="1"/>
-    <col min="22" max="22" width="13.125" customWidth="1"/>
-    <col min="28" max="29" width="12.375" customWidth="1"/>
-    <col min="30" max="30" width="14.375" customWidth="1"/>
-    <col min="31" max="31" width="16.875" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.08203125" customWidth="1"/>
+    <col min="28" max="29" width="12.33203125" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" customWidth="1"/>
+    <col min="31" max="31" width="16.83203125" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
     <col min="33" max="33" width="14.75" customWidth="1"/>
     <col min="34" max="34" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>7.6032653061224442</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>51</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>69</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>73</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>74</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>75</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>76</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>77</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>78</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>79</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>80</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>81</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>82</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>83</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>84</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>85</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>86</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>87</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>88</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>89</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>91</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>92</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>93</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>94</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>95</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>97</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>98</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>99</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>100</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>101</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>102</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>103</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>104</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>108</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>109</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>110</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>111</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>112</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>114</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>116</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>117</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>118</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>119</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>120</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>121</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>123</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>124</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>125</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>126</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>127</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>128</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>129</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>130</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>33.04</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>131</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>132</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>133</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>136</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>137</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>138</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>139</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>140</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>141</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>15.19</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>144</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>145</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>146</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>147</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>148</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>149</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>150</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>151</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>152</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>153</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>154</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>155</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>156</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>157</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>158</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>159</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>160</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>161</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>162</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>163</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>164</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>79.53</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>165</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>166</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>167</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>168</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>169</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>170</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>88.86</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>171</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>172</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>173</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>34.26</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>174</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>175</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>176</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>177</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>178</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>39.840000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>179</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>180</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>181</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>182</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>183</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>184</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>185</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>186</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>187</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>188</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>189</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>190</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>191</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>192</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>51.49</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>193</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>194</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>195</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>15.89</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>196</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>197</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>198</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>199</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>37.81</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>200</v>
       </c>
@@ -18678,14 +18678,1000 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F122E6F5-A281-453A-8894-DF6E290A4838}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
